--- a/pubs/SasView Publications to 23 Dec 2015.xlsx
+++ b/pubs/SasView Publications to 23 Dec 2015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="782">
   <si>
     <t>Exploring the Kinetics of Gelation and Final Architecture of Enzymatically Cross-Linked Chitosan/Gelatin Gels</t>
   </si>
@@ -496,18 +496,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/am508903g</t>
   </si>
   <si>
-    <t>Chemistry of Single-Walled Carbon Nanotubes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S. Niyogi,M. A. Hamon,H. Hu,B. Zhao,P. Bhowmik,R. Sen,M. E. Itkis, and, and R. C. Haddon*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accounts of Chemical Research 2002 35 (12), 1105-1113</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ar010155r</t>
-  </si>
-  <si>
     <t>Polymeric Vesicles: From Drug Carriers to Nanoreactors and Artificial Organelles</t>
   </si>
   <si>
@@ -544,111 +532,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/bc2003583</t>
   </si>
   <si>
-    <t>The anion requirement for iron release from transferrin is preserved in the receptor-transferrin complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Timothy J. Egan, Olga Zak, and Philip Aisen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 1993 32 (32), 8162-8167</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi00083a016</t>
-  </si>
-  <si>
-    <t>Receptor-modulated iron release from transferrin: differential effects on N- and C-terminal sites</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pawan K. Bali and Philip Aisen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 1991 30 (41), 9947-9952</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi00105a019</t>
-  </si>
-  <si>
-    <t>Receptor-induced switch in site-site cooperativity during iron release by transferrin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 1992 31 (16), 3963-3967</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi00131a011</t>
-  </si>
-  <si>
-    <t>Binding of phosphonate chelating agents and pyrophosphate to apotransferrin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wesley R. Harris and Diane Nesset-Tollefson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 1991 30 (28), 6930-6936</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi00242a017</t>
-  </si>
-  <si>
-    <t>Spectroscopic and thermodynamic studies on the binding of gadolinium(III) to human serum transferrin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Olga Zak and Philip Aisen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 1988 27 (3), 1075-1080</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi00403a033</t>
-  </si>
-  <si>
-    <t>Investigation of the Mechanism of Iron Release from the C-Lobe of Human Serum Transferrin:? Mutational Analysis of the Role of a pH Sensitive Triad†</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Peter J. Halbrooks,‡, Qing-Yu He,‡,§, Sara K. Briggs,‡, Stephen J. Everse,‡, Valerie C. Smith,?, Ross T. A. MacGillivray,? and, and Anne B. Mason*,‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 2003 42 (13), 3701-3707</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi027071q</t>
-  </si>
-  <si>
-    <t>Iron Release from Transferrin, Its C-Lobe, and Their Complexes with Transferrin Receptor:? Presence of N-Lobe Accelerates Release from C-Lobe at Endosomal pH†</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Olga Zak and and Philip Aisen*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 2003 42 (42), 12330-12334</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi034991f</t>
-  </si>
-  <si>
-    <t>Mutational Analysis of C-Lobe Ligands of Human Serum Transferrin:? Insights into the Mechanism of Iron Release†</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anne B. Mason,*,‡, Peter J. Halbrooks,‡, Nicholas G. James,‡, Susan A. Connolly,‡, Julia R. Larouche,‡, Valerie C. Smith,§, Ross T. A. MacGillivray,§ and, and N. Dennis Chasteen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 2005 44 (22), 8013-8021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi050015f</t>
-  </si>
-  <si>
-    <t>Kinetics of Iron Release from Ferric Binding Protein (FbpA):? Mechanistic Implications in Bacterial Periplasm-to-Cytosol Fe3+ Transport†</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suraj Dhungana,‡, Damon S. Anderson,§, Timothy A. Mietzner,§ and, and Alvin L. Crumbliss*,‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 2005 44 (28), 9606-9618</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi0505518</t>
-  </si>
-  <si>
     <t>Molybdenum Induces the Expression of a Protein Containing a New Heterometallic Mo-Fe Cluster in Desulfovibrio alaskensis†</t>
   </si>
   <si>
@@ -661,66 +544,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/bi801773t</t>
   </si>
   <si>
-    <t>A Kinetically Active Site in the C-Lobe of Human Transferrin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Olga Zak,‡, Beatrice Tam,§, Ross T. A. MacGillivray,§ and, and Philip Aisen*,‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 1997 36 (36), 11036-11043</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi970628v</t>
-  </si>
-  <si>
-    <t>Kinetic Studies on the Removal of Iron and Aluminum from Recombinant and Site-Directed Mutant N-Lobe Half Transferrins</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yuejin Li,‡, Wesley R. Harris,*,‡, Alexis Maxwell,§, Ross T. A. MacGillivray,§ and, and Todd Brown‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 1998 37 (40), 14157-14166</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi9810454</t>
-  </si>
-  <si>
-    <t>Inhibitory Copper Binding Site on the Spinach Cytochrome b6f Complex:? Implications for Qo Site Catalysis†</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sudha Rao B. K.‡, Alexei M. Tyryshkin,§, Arthur G. Roberts,‡, Michael K. Bowman,§ and, and David M. Kramer*,‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 2000 39 (12), 3285-3296</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi991974a</t>
-  </si>
-  <si>
-    <t>Crystal Structure at 1.9 Å Resolution of the Apoovotransferrin N-Lobe Bound by Sulfate Anions:? Implications for the Domain Opening and Iron Release Mechanism†,‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kimihiko Mizutani,Honami Yamashita,Bunzo Mikami, and, and Masaaki Hirose*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry 2000 39 (12), 3258-3265</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bi992574q</t>
-  </si>
-  <si>
-    <t>Effects of Temperature and Water Content on the Secondary Structure of Wheat Gluten Studied by FTIR Spectroscopy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dominique M. R. Georget and and Peter S. Belton*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biomacromolecules 2006 7 (2), 469-475</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/bm050667j</t>
-  </si>
-  <si>
     <t>Hydration of Gluten:? A Dielectric, Calorimetric, and Fourier Transform Infrared Study</t>
   </si>
   <si>
@@ -769,54 +592,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/bm801374q</t>
   </si>
   <si>
-    <t>Parallel Electrosynthesis of a-Alkoxycarbamates, a-Alkoxyamides, and a-Alkoxysulfonamides Using the Spatially Addressable Electrolysis Platform (SAEP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tung Siu,Wei Li, and, and Andrei K. Yudin*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Combinatorial Chemistry 2000 2 (5), 545-549</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cc000035v</t>
-  </si>
-  <si>
-    <t>A Versatile and Inexpensive Apparatus for Rapid Parallel Synthesis on Solid Support:? Description and Synthesis Illustration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ashis K. Saha,*, Li Liu, and, and Richard L. Simoneaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Combinatorial Chemistry 2001 3 (2), 181-188</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cc0000794</t>
-  </si>
-  <si>
-    <t>Synthesis of a Sulfahydantoin Library1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fernando Albericio,*,†, Lois M. Bryman,‡, Javier Garcia,†,‡, Enrique L. Michelotti,*,‡, Ernesto Nicolás,† and, and Colin M. Tice*,‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Combinatorial Chemistry 2001 3 (3), 290-300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cc000111u</t>
-  </si>
-  <si>
-    <t>SPOCC-194, a New High Functional Group Density PEG-Based Resin for Solid-Phase Organic Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les P. Miranda,†,‡, William D. Lubell,‡, Koen M. Halkes,§, Thomas Groth,§, Morten Grøtli,§, Jörg Rademann,§, Charlotte H. Gotfredsen,§ and, and Morten Meldal*,§</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Combinatorial Chemistry 2002 4 (5), 523-529</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cc020030t</t>
-  </si>
-  <si>
     <t>Parallel Synthesis of 1,3-Dihydro-1,4-benzodiazepine-2-ones Employing Catch and Release</t>
   </si>
   <si>
@@ -841,30 +616,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/cc9001795</t>
   </si>
   <si>
-    <t>Solid-Phase Synthesis of Acyclic and Cyclic Amino Acid Derived Urea Peptidomimetics Using Phoxime Resin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yoshitomo Hamuro,§,?, William J. Marshall,? and, and Mark A. Scialdone*,§</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Combinatorial Chemistry 1999 1 (2), 163-172</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cc980028v</t>
-  </si>
-  <si>
-    <t>Parallel Personal Comments on “Classical” Papers in Combinatorial Chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Michal Lebl*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Combinatorial Chemistry 1999 1 (1), 3-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cc9800327</t>
-  </si>
-  <si>
     <t>Monitoring the Coordination Modulator Shell at MOF Nanocrystals</t>
   </si>
   <si>
@@ -877,18 +628,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/cg501025g</t>
   </si>
   <si>
-    <t>Diversity Profiling and Design Using 3D Pharmacophores:? Pharmacophore-Derived Queries (PDQ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stephen D. Pickett,*,†, Jonathan S. Mason,*,‡ and, and Iain M. McLay†</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Chemical Information and Computer Sciences 1996 36 (6), 1214-1223</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ci960039g</t>
-  </si>
-  <si>
     <t>Controlled Synthesis of Ordered Mesoporous C-TiO2 Nanocomposites with Crystalline Titania Frameworks from Organic-Inorganic-Amphiphilic Coassembly†</t>
   </si>
   <si>
@@ -925,30 +664,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/co1000986</t>
   </si>
   <si>
-    <t>Solid Phase Heterocyclic Chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Viktor Krchnák*,† and and Mark W. Holladay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemical Reviews 2002 102 (1), 61-92</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cr010123h</t>
-  </si>
-  <si>
-    <t>The Combinatorial Synthesis of Bicyclic Privileged Structures or Privileged Substructures</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Douglas A. Horton,†, Gregory T. Bourne,†,‡ and, and Mark L. Smythe*,†,‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemical Reviews 2003 103 (3), 893-930</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cr020033s</t>
-  </si>
-  <si>
     <t>Metal–Organic Derivatives with Fluorinated Ligands as Precursors for Inorganic Nanomaterials</t>
   </si>
   <si>
@@ -961,78 +676,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/cr400637c</t>
   </si>
   <si>
-    <t>Synthesis and Applications of Small Molecule Libraries</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorin A. Thompson and and Jonathan A. Ellman*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemical Reviews 1996 96 (1), 555-600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cr9402081</t>
-  </si>
-  <si>
-    <t>The Current Status of Heterocyclic Combinatorial Libraries</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adel Nefzi,John M. Ostresh, and, and Richard A. Houghten*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemical Reviews 1997 97 (2), 449-472</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cr960010b</t>
-  </si>
-  <si>
-    <t>The “One-Bead-One-Compound” Combinatorial Library Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kit S. Lam,*,†, Michal Lebl,‡ and, and Viktor Krchnák‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemical Reviews 1997 97 (2), 411-448</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cr9600114</t>
-  </si>
-  <si>
-    <t>Spatially Addressable Combinatorial Libraries</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Michael C. Pirrung</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemical Reviews 1997 97 (2), 473-488</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cr960013o</t>
-  </si>
-  <si>
-    <t>Reactions of Transition Metal Complexes with Fullerenes (C60, C70, etc.) and Related Materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alan L. Balch* and and Marilyn M. Olmstead</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemical Reviews 1998 98 (6), 2123-2166</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cr960040e</t>
-  </si>
-  <si>
-    <t>Transferrin as a Metal Ion Mediator</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hongzhe Sun,Hongyan Li, and, and Peter J. Sadler*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemical Reviews 1999 99 (9), 2817-2842</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/cr980430w</t>
-  </si>
-  <si>
     <t>One-Pot Synthesis of Supported, Nanocrystalline Nickel Manganese Oxide for Dry Reforming of Methane</t>
   </si>
   <si>
@@ -1165,54 +808,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/es802412r</t>
   </si>
   <si>
-    <t>Compressive properties of glass fiber reinforced rigid polyurethane foam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ryutoku Yosomiya and Kiyotake Morimoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Industrial &amp; Engineering Chemistry Product Research and Development 1984 23 (4), 605-608</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/i300016a019</t>
-  </si>
-  <si>
-    <t>Kinetics of iron removal from human serum monoferric transferrins by citrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Helder M. Marques, Dawn L. Watson, and Timothy J. Egan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inorganic Chemistry 1991 30 (19), 3758-3762</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ic00019a037</t>
-  </si>
-  <si>
-    <t>Kinetics of Metal Ion Exchange between Citric Acid and Serum Transferrin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wesley R. Harris,*,†, Zhepeng Wang,†, Claire Brook,†, Binsheng Yang,‡ and, and Ashraful Islam†</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inorganic Chemistry 2003 42 (19), 5880-5889</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ic034009o</t>
-  </si>
-  <si>
-    <t>A Determination of the Reduction Potentials for Diferric and C- and N-Lobe Monoferric Transferrins at Endosomal pH (5.8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Daniel C. Kraiter,†, Olga Zak,‡, Philip Aisen,‡ and, and Alvin L. Crumbliss*,†</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inorganic Chemistry 1998 37 (5), 964-968</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ic970644g</t>
-  </si>
-  <si>
     <t>Role of Surfactant Adsorption in Controlling Morphology of Single-Walled Carbon Nanotubes/Polythiophene Nanohybrid</t>
   </si>
   <si>
@@ -1249,78 +844,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/ie5032502</t>
   </si>
   <si>
-    <t>CORROSION ACTIVITY IN 1965—PART I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> J. H. S. Haggin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Industrial &amp; Engineering Chemistry 1966 58 (8), 27-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ie50680a007</t>
-  </si>
-  <si>
-    <t>Hydrodynamics and Mass Transfer in a Liquid-Impelled Loop Reactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D. M. R. Mateus,†, M. M. R. Fonseca,† and, and S. S. Alves*,‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Industrial &amp; Engineering Chemistry Research 1996 35 (12), 4559-4565</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ie960225b</t>
-  </si>
-  <si>
-    <t>Structural factors controlling the aggregation of lithium phenolates in weakly polar aprotic solvents</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lloyd M. Jackman and B. D. Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of the American Chemical Society 1988 110 (12), 3829-3835</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ja00220a017</t>
-  </si>
-  <si>
-    <t>Low-spin cyanide adduct of transferrin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Susan K. Swope, N. Dennis. Chasteen, Katherine E. Weber, and Daniel C. Harris</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of the American Chemical Society 1988 110 (12), 3835-3840</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ja00220a018</t>
-  </si>
-  <si>
-    <t>Conformations of four-membered ring hydrazines and hydrazine radical cations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S. F. Nelsen, V. E. Peacock, G. R. Weisman, M. E. Landis, and J. A. Spencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of the American Chemical Society 1978 100 (9), 2806-2810</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ja00477a038</t>
-  </si>
-  <si>
-    <t>Transition state for base-catalyzed cleavage of the silicon-oxygen bond</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Richard L. Schowen and Kenyon S. Latham</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of the American Chemical Society 1967 89 (18), 4677-4683</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ja00994a018</t>
-  </si>
-  <si>
     <t>Growth of First Generation Dendrons on SiO2:? Controlling Chemisorption of Transition Metal Coordination Complexes</t>
   </si>
   <si>
@@ -1393,78 +916,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/ja9015233</t>
   </si>
   <si>
-    <t>Novel Solution Phase Strategy for the Synthesis of Chemical Libraries Containing Small Organic Molecules</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soan Cheng,Daniel D. Comer,John P. Williams,Peter L. Myers, and, and Dale L. Boger*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of the American Chemical Society 1996 118 (11), 2567-2573</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ja9530681</t>
-  </si>
-  <si>
-    <t>Supramolecular Aggregation of Pd6Cl12, a Cluster of Comparable Size to a Fullerene, with Aromatic Donors and with C60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marilyn M. Olmstead,*, Arwa S. Ginwalla,Bruce C. Noll,Dino S. Tinti, and, and Alan L. Balch*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of the American Chemical Society 1996 118 (33), 7737-7745</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ja960939d</t>
-  </si>
-  <si>
-    <t>Ru3(CO)9(µ3-?2,?2,?2-C60):? A Cluster Face-Capping, Arene-Like Complex of C60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hsiu-Fu Hsu and and John R. Shapley*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of the American Chemical Society 1996 118 (38), 9192-9193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ja962077m</t>
-  </si>
-  <si>
-    <t>C60:? Sphere or Polyhedron?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R. C. Haddon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of the American Chemical Society 1997 119 (7), 1797-1798</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ja9637659</t>
-  </si>
-  <si>
-    <t>Interaction of Curved and Flat Molecular Surfaces. The Structures of Crystalline Compounds Composed of Fullerene (C60, C60O, C70, and C120O) and Metal Octaethylporphyrin Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marilyn M. Olmstead,*, David A. Costa,Kalyani Maitra,Bruce C. Noll,†, Shane L. Phillips,Pamela M. Van Calcar, and, and Alan L. Balch*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of the American Chemical Society 1999 121 (30), 7090-7097</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ja990618c</t>
-  </si>
-  <si>
-    <t>Intermolecular Coupling Enhancement of the Molecular Hyperpolarizability in Multichromophoric Dipolar Dendrons</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shiyoshi Yokoyama,*, Tatsuo Nakahama,Akira Otomo, and, and Shinro Mashiko</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of the American Chemical Society 2000 122 (13), 3174-3181</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ja993569c</t>
-  </si>
-  <si>
     <t>Direct and Dry Deposited Single-Walled Carbon Nanotube Films Doped with MoOx as Electron-Blocking Transparent Electrodes for Flexible Organic Solar Cells</t>
   </si>
   <si>
@@ -1525,90 +976,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/je800155q</t>
   </si>
   <si>
-    <t>Composition and Physicochemical Properties of Linseed (Linum usitatissimum L.) Mucilage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ricky W. Fedeniuk and Costas G. Biliaderis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 1994 42 (2), 240-247</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf00038a003</t>
-  </si>
-  <si>
-    <t>Effect of Storage on Wall-Bound Phenolics in Green Asparagus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rocio C. Rodriguez-Arcos,†, Andrew C. Smith, and, and Keith W. Waldron*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 2002 50 (11), 3197-3203</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf011687p</t>
-  </si>
-  <si>
-    <t>Carotenoid Composition of Hydroponic Leafy Vegetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mieko Kimura† and and Delia B. Rodriguez-Amaya*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 2003 51 (9), 2603-2607</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf020539b</t>
-  </si>
-  <si>
-    <t>Antioxidant and Antiproliferative Activities of Common Vegetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yi-Fang Chu,†, Jie Sun,†, Xianzhong Wu,† and, and Rui Hai Liu*,†,‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 2002 50 (23), 6910-6916</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf020665f</t>
-  </si>
-  <si>
-    <t>Algal Degradation of a Known Endocrine Disrupting Insecticide, a-Endosulfan, and Its Metabolite, Endosulfan Sulfate, in Liquid Medium and Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N. Sethunathan,†, M. Megharaj,*,†, Z. L. Chen,†, B. D. Williams,‡, Gareth Lewis,‡ and, and R. Naidu†</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 2004 52 (10), 3030-3035</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf035173x</t>
-  </si>
-  <si>
-    <t>Bioactive Compounds of Grapefruit (Citrus paradisi Cv. Rio Red) Respond Differently to Postharvest Irradiation, Storage, and Freeze Drying</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jairam Vanamala,†,‡, Greg Cobb,§, Nancy D. Turner,?, Joanne R. Lupton,?, Kil Sun Yoo,‡, Leonard M. Pike,‡ and, and Bhimanagouda S. Patil†,‡,*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 2005 53 (10), 3980-3985</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf048167p</t>
-  </si>
-  <si>
-    <t>Characterization of Biodegradable Films Obtained from Cysteine-Mediated Polymerized Gliadins</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pilar Hernandez-Munoz,*,†,§, Antonis Kanavouras,†, Ricardo Villalobos,# and, and Amparo Chiralt§</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 2004 52 (26), 7897-7904</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf0491613</t>
-  </si>
-  <si>
     <t>Analysis of Protein Structures and Interactions in Complex Food by Near-Infrared Spectroscopy. 1. Gluten Powder</t>
   </si>
   <si>
@@ -1753,18 +1120,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/jf504674z</t>
   </si>
   <si>
-    <t>Persistence of endosulfan in soils</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D. Mohana Ranga Rao and A. Satyanarayana Murty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 1980 28 (6), 1099-1101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf60232a012</t>
-  </si>
-  <si>
     <t>Contents of Vitamin C, Carotenoids, Tocopherols, and Tocotrienols in the Subtropical Plant Species Cyphostemma digitatum as Affected by Processing</t>
   </si>
   <si>
@@ -1801,78 +1156,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/jf902225p</t>
   </si>
   <si>
-    <t>Application of a Validated Method for the Determination of Provitamin A Carotenoids in Indonesian Foods of Different Maturity and Origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Paul J. M. Hulshof,†, Chao Xu,†,‡, Peter van de Bovenkamp,†, Muhilal,§ and, and Clive E. West*,†,?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 1997 45 (4), 1174-1179</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf9603137</t>
-  </si>
-  <si>
-    <t>Application of Immunoassays to Studies of the Environmental Fate of Endosulfan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nanju Lee,†,‡,§, Helen L. Beasley,‡, Stephen W. L. Kimber,†, Mark Silburn,?, Nicholas Woods,?, John H. Skerritt,‡,§ and, and Ivan R. Kennedy*,†</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 1997 45 (10), 4147-4155</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf960915q</t>
-  </si>
-  <si>
-    <t>Changes in Physicochemical Properties of Dry Beans (Phaseolus vulgaris L.) during Long-Term Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> María A. Martín-Cabrejas,*,†, Rosa M. Esteban,†, Pedro Perez,†, Gladys Maina,‡ and, and Keith W. Waldron§</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 1997 45 (8), 3223-3227</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf970069z</t>
-  </si>
-  <si>
-    <t>Effect of Oxidative Coupling on the Thermal Stability of Texture and Cell Wall Chemistry of Beet Root (Beta vulgaris)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A. Ng,A. J. Harvey,M. L. Parker,A. C. Smith, and, and K. W. Waldron*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 1998 46 (8), 3365-3370</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf9711101</t>
-  </si>
-  <si>
-    <t>Modifications to Physicochemical and Nutritional Properties of Hard-To-Cook Beans (Phaseolus vulgaris L.) by Extrusion Cooking</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> María A. Martín-Cabrejas,*,†, Laura Jaime,†, Caroline Karanja,‡, Andrew J. Downie,§, Mary L. Parker,§, Francisco J. Lopez-Andreu,†, Gladys Maina,‡, Rosa M. Esteban,†, Andrew C. Smith,§ and, and Keith W. Waldron§</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 1999 47 (3), 1174-1182</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf980850m</t>
-  </si>
-  <si>
-    <t>Nutritional and Sensory Evaluation of Akara Made from Blends of Cowpea and Hard-to-Cook Mottled Brown Dry Beans</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C. M. F. Mbofung,*,†, N. Rigby,‡ and, and K. W. Waldron‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Agricultural and Food Chemistry 1999 47 (12), 5232-5238</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jf981332e</t>
-  </si>
-  <si>
     <t>Studies of the Synthesis of All Stereoisomers of MG-132 Proteasome Inhibitors in the Tumor Targeting Approach</t>
   </si>
   <si>
@@ -1885,30 +1168,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/jm901619n</t>
   </si>
   <si>
-    <t>Potent, Orally Active GPIIb/IIIa Antagonists Containing a Nipecotic Acid Subunit. Structure-Activity Studies Leading to the Discovery of RWJ-53308</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> William J. Hoekstra,*,†, Bruce E. Maryanoff,†, Bruce P. Damiano,†, Patricia Andrade-Gordon,†, Judith H. Cohen,‡, Michael J. Costanzo,†, Barbara J. Haertlein,†, Leonard R. Hecker,†, Becky L. Hulshizer,†, Jack A. Kauffman,†, Patricia Keane,†, David F. McComsey,†, John A. Mitchell,†, Lorraine Scott,‡, Rekha D. Shah,‡ and, and Stephen C. Yabut†</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Medicinal Chemistry 1999 42 (25), 5254-5265</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jm990418b</t>
-  </si>
-  <si>
-    <t>The Aminobarbituric Acid-Hydantoin Rearrangement</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manuela Meusel,†, Agnieszka Ambrozak,†, Thomas K. Hecker,‡ and, and Michael Gütschow*,†</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Organic Chemistry 2003 68 (12), 4684-4692</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jo020761f</t>
-  </si>
-  <si>
     <t>Diels–Alder Reactions of Chiral Isoimidium Salts: A Computational Study</t>
   </si>
   <si>
@@ -1969,138 +1228,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/jo9025447</t>
   </si>
   <si>
-    <t>Solid-Phase Suzuki Coupling for C-C Bond Formation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Joseph W. Guiles,*, Sigmond G. Johnson, and, and William V. Murray</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Organic Chemistry 1996 61 (15), 5169-5171</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jo9604301</t>
-  </si>
-  <si>
-    <t>Chemoselective Synthesis and Resolution of Chiral [1,9]Methanofullerene[70] Derivatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yihan Wang,David I. Schuster,* and, Stephen R. Wilson*, and Christopher J. Welch</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Organic Chemistry 1996 61 (16), 5198-5199</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jo961070k</t>
-  </si>
-  <si>
-    <t>Cyclopenta-1,2-dithioles, Cyclopenta-1,2-thiazines, and Methylenoindenes from New Molecular Rearrangements</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oleg A. Rakitin, Charles W. Rees* and, David J. Williams, and Tomás Torroba</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Organic Chemistry 1996 61 (26), 9178-9185</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jo9612234</t>
-  </si>
-  <si>
-    <t>Solid and Solution Phase Organic Syntheses of Oligomeric Thioureas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Joseph Smith,Jennifer L. Liras,Stephen E. Schneider, and, and Eric V. Anslyn*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Organic Chemistry 1996 61 (25), 8811-8818</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jo9614102</t>
-  </si>
-  <si>
-    <t>Solid-Phase Synthesis of 1,4-Benzodiazepine-2,5-diones. Library Preparation and Demonstration of Synthesis Generality</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Constantine G. Boojamra,†, Kristina M. Burow,Lorin A. Thompson, and, and Jonathan A. Ellman*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Organic Chemistry 1997 62 (5), 1240-1256</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jo9622845</t>
-  </si>
-  <si>
-    <t>Solution-Phase Synthesis of a Combinatorial Thiohydantoin Library1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mui Mui Sim and and Arasu Ganesan*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Organic Chemistry 1997 62 (10), 3230-3235</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jo962376u</t>
-  </si>
-  <si>
-    <t>Microwave-Mediated Intramolecular Carbanilide Cyclization to Hydantoins Employing Barium Hydroxide Catalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Young-Dae Gong,Ho-Yeong Sohn, and, and Mark J. Kurth*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Organic Chemistry 1998 63 (14), 4854-4856</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jo980419w</t>
-  </si>
-  <si>
-    <t>Selenium-Linking Strategy for Traceless Solid-Phase Synthesis:? Direct Loading, Aliphatic C-H Bond Formation upon Cleavage and Reaction Monitoring by Gradient MAS NMR Spectroscopy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thomas Ruhland,*, Kim Andersen, and, and Henrik Pedersen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Organic Chemistry 1998 63 (25), 9204-9211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jo9806310</t>
-  </si>
-  <si>
-    <t>The Reactions of Hydrazines with a-Lactams. Regiochemistry of Hydrazine Addition and Subsequent Ring Closure to N-Aminohydantoins or 1,2,4-Triazine-3,6-diones</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Robert V. Hoffman,*,†, Madhava M. Reddy,†, Curtis M. Klumas,† and, and Francisco Cervantes-Lee‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Organic Chemistry 1998 63 (24), 9128-9130</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jo981650c</t>
-  </si>
-  <si>
-    <t>Competitive Binding Studies of H2T4 with DNA Hairpins (H2T4 = meso-Tetrakis(4-(N-methylpyridiniumyl))porphyrin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Keith E. Thomas and and David R. McMillin*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Physical Chemistry B 2001 105 (50), 12628-12633</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jp011860k</t>
-  </si>
-  <si>
-    <t>Comments on the “Osmotic Coefficients and Surface Tensions of Aqueous Electrolyte Solutions: Role of the Dispersion Forces”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marian Manciu† and and Eli Ruckenstein*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Physical Chemistry B 2004 108 (52), 20479-20481</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jp047959j</t>
-  </si>
-  <si>
     <t>Mechanistic Studies of the Electro-oxidation Pathway of Ammonia in Several Room-Temperature Ionic Liquids</t>
   </si>
   <si>
@@ -2326,30 +1453,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/jp804918t</t>
   </si>
   <si>
-    <t>Application of Circularly Polarized Luminescence Spectroscopy to Tb(III) and Eu(III) Complexes of Transferrins</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sohrab Abdollahi and, Wesley R. Harris*, and James P. Riehl*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Physical Chemistry 1996 100 (5), 1950-1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jp952044d</t>
-  </si>
-  <si>
-    <t>Lattice Dynamics of Fullerenes Probed by Organometallic Intercalates</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P. R. Birkett and, K. Kordatos, J. D. Crane, and Rolfe H. Herber*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Journal of Physical Chemistry B 1997 101 (44), 8975-8978</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/jp972253t</t>
-  </si>
-  <si>
     <t>Enhanced Hole Extraction in Perovskite Solar Cells Through Carbon Nanotubes</t>
   </si>
   <si>
@@ -2362,42 +1465,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/jz5021795</t>
   </si>
   <si>
-    <t>X-ray Absorption Spectroscopy Study of Immobilization Processes for Heavy Metals in Calcium Silicate Hydrates. 2. Zinc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jérôme Rose,*,†, Isabelle Moulin,†,‡, Armand Masion,†, Paul M. Bertsch,§, Mark R. Wiesner,?, Jean-Yves Bottero,†, Francis Mosnier,? and, and Claude Haehnel#</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Langmuir 2001 17 (12), 3658-3665</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/la001302h</t>
-  </si>
-  <si>
-    <t>Varying the Counterions at a Charged Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P. Koelsch and and H. Motschmann*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Langmuir 2005 21 (8), 3436-3442</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/la0480179</t>
-  </si>
-  <si>
-    <t>On the Restabilization of Protein-Covered Latex Colloids at High Ionic Strengths</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Haohao Huang,Marian Manciu,† and, and Eli Ruckenstein*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Langmuir 2005 21 (1), 94-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/la0481795</t>
-  </si>
-  <si>
     <t>Biomineralization of Gold Nanoparticles by Lysozyme and Cytochrome c and Their Applications in Protein Film Formation</t>
   </si>
   <si>
@@ -2806,30 +1873,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/ma501015s</t>
   </si>
   <si>
-    <t>Undulations and Disorder in Block Copolymer Lamellae under Shear Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> H. Wang,P. K. Kesani, and, N. P. Balsara*, and B. Hammouda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macromolecules 1997 30 (4), 982-992</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ma961269z</t>
-  </si>
-  <si>
-    <t>Anionic Polymerization of Monomers Containing Functional Groups. 13. Anionic Polymerizations of 2-, 3-, and 4-(3,3-Dimethyl-1-butynyl)styrenes, 2-, 3-, and 4-(1-Hexynyl)styrenes, and 4-(Phenylethynyl)styrene</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Takashi Ishizone,Gouki Uehara,Akira Hirao,* and, Seiichi Nakahama, and Katsuyuki Tsuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macromolecules 1998 31 (12), 3764-3774</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ma971849b</t>
-  </si>
-  <si>
     <t>Engineering Stent Based Delivery System for Esophageal Cancer Using Docetaxel</t>
   </si>
   <si>
@@ -2971,30 +2014,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/nn505860a</t>
   </si>
   <si>
-    <t>The Triterpene Esters of Dolichothele longimamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gayland F. Spencer, Kathleen Payne-Wahl, Rebecca B. Wolf, and Jerry L. McLaughlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Journal of Natural Products 1983 46 (4), 551-558</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/np50028a021</t>
-  </si>
-  <si>
-    <t>Fluorous Synthesis of Hydantoins and Thiohydantoins</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wei Zhang* and and Yimin Lu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Organic Letters 2003 5 (14), 2555-2558</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/ol034854a</t>
-  </si>
-  <si>
     <t>Enzymatic Reduction of Ketones in “Micro-aqueous” Media Catalyzed by ADH-A from Rhodococcus ruber</t>
   </si>
   <si>
@@ -3019,18 +2038,6 @@
     <t xml:space="preserve"> http://dx.doi.org/10.1021/ol101414b</t>
   </si>
   <si>
-    <t>Photochemical rearrangements of stable silenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kim M. Baines, A. G. Brook, R. R. Ford, P. D. Lickiss, A. K. Saxena, W. J. Chatterton, J. F. Sawyer, and B. A. Behnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Organometallics 1989 8 (3), 693-709</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/om00105a018</t>
-  </si>
-  <si>
     <t>Modeling the Chemical Conversion of Organic Compounds in Sodium Borohydride Reduction Reactions</t>
   </si>
   <si>
@@ -3053,18 +2060,6 @@
   </si>
   <si>
     <t xml:space="preserve"> http://dx.doi.org/10.1021/sc400295w</t>
-  </si>
-  <si>
-    <t>What Structural Features Determine Repair Enzyme Specificity and Mechanism in Chemically Modified DNA?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B. Singer* and and B. Hang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemical Research in Toxicology 1997 10 (7), 713-732</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://dx.doi.org/10.1021/tx970011e</t>
   </si>
   <si>
     <t>In situ neutron scattering study of structural transitions in fibrin networks under shear deformation</t>
@@ -3703,15 +2698,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174:XFD176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="84.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" bestFit="1" customWidth="1"/>
@@ -3747,3894 +2742,2718 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>344</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>346</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>341</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>342</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>625</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>623</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>624</v>
       </c>
       <c r="D15" t="s">
-        <v>302</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>944</v>
+        <v>640</v>
       </c>
       <c r="B16" t="s">
-        <v>942</v>
+        <v>638</v>
       </c>
       <c r="C16" t="s">
-        <v>943</v>
+        <v>639</v>
       </c>
       <c r="D16" t="s">
-        <v>945</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>959</v>
+        <v>636</v>
       </c>
       <c r="B17" t="s">
-        <v>957</v>
+        <v>634</v>
       </c>
       <c r="C17" t="s">
-        <v>958</v>
+        <v>635</v>
       </c>
       <c r="D17" t="s">
-        <v>960</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>955</v>
+        <v>644</v>
       </c>
       <c r="B18" t="s">
-        <v>953</v>
+        <v>642</v>
       </c>
       <c r="C18" t="s">
-        <v>954</v>
+        <v>643</v>
       </c>
       <c r="D18" t="s">
-        <v>956</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>963</v>
+        <v>656</v>
       </c>
       <c r="B19" t="s">
-        <v>961</v>
+        <v>654</v>
       </c>
       <c r="C19" t="s">
-        <v>962</v>
+        <v>655</v>
       </c>
       <c r="D19" t="s">
-        <v>964</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>975</v>
+        <v>648</v>
       </c>
       <c r="B20" t="s">
-        <v>973</v>
+        <v>646</v>
       </c>
       <c r="C20" t="s">
-        <v>974</v>
+        <v>647</v>
       </c>
       <c r="D20" t="s">
-        <v>976</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>967</v>
+        <v>652</v>
       </c>
       <c r="B21" t="s">
-        <v>965</v>
+        <v>650</v>
       </c>
       <c r="C21" t="s">
-        <v>966</v>
+        <v>651</v>
       </c>
       <c r="D21" t="s">
-        <v>968</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>971</v>
+        <v>664</v>
       </c>
       <c r="B22" t="s">
-        <v>969</v>
+        <v>662</v>
       </c>
       <c r="C22" t="s">
-        <v>970</v>
+        <v>663</v>
       </c>
       <c r="D22" t="s">
-        <v>972</v>
+        <v>665</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>983</v>
+        <v>660</v>
       </c>
       <c r="B23" t="s">
-        <v>981</v>
+        <v>658</v>
       </c>
       <c r="C23" t="s">
-        <v>982</v>
+        <v>659</v>
       </c>
       <c r="D23" t="s">
-        <v>984</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>979</v>
+        <v>680</v>
       </c>
       <c r="B24" t="s">
-        <v>977</v>
+        <v>678</v>
       </c>
       <c r="C24" t="s">
-        <v>978</v>
+        <v>679</v>
       </c>
       <c r="D24" t="s">
-        <v>980</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1011</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>1009</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
-        <v>1010</v>
+        <v>173</v>
       </c>
       <c r="D25" t="s">
-        <v>1012</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>217</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>692</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>690</v>
       </c>
       <c r="C33" t="s">
-        <v>228</v>
+        <v>691</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>764</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>762</v>
       </c>
       <c r="C34" t="s">
-        <v>224</v>
+        <v>763</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>765</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D36" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D37" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>716</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>714</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>715</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>717</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>233</v>
+        <v>720</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>718</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>719</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>721</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" t="s">
         <v>243</v>
-      </c>
-      <c r="C43" t="s">
-        <v>244</v>
-      </c>
-      <c r="D43" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" t="s">
         <v>247</v>
-      </c>
-      <c r="C44" t="s">
-        <v>248</v>
-      </c>
-      <c r="D44" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1027</v>
+        <v>724</v>
       </c>
       <c r="B48" t="s">
-        <v>1025</v>
+        <v>722</v>
       </c>
       <c r="C48" t="s">
-        <v>1026</v>
+        <v>723</v>
       </c>
       <c r="D48" t="s">
-        <v>1028</v>
+        <v>725</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1099</v>
+        <v>270</v>
       </c>
       <c r="B49" t="s">
-        <v>1097</v>
+        <v>268</v>
       </c>
       <c r="C49" t="s">
-        <v>1098</v>
+        <v>269</v>
       </c>
       <c r="D49" t="s">
-        <v>1100</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1015</v>
+        <v>266</v>
       </c>
       <c r="B50" t="s">
-        <v>1013</v>
+        <v>264</v>
       </c>
       <c r="C50" t="s">
-        <v>1014</v>
+        <v>265</v>
       </c>
       <c r="D50" t="s">
-        <v>1016</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="C51" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="D51" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>780</v>
       </c>
       <c r="B52" t="s">
-        <v>323</v>
+        <v>778</v>
       </c>
       <c r="C52" t="s">
-        <v>324</v>
+        <v>779</v>
       </c>
       <c r="D52" t="s">
-        <v>326</v>
+        <v>781</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>321</v>
+        <v>704</v>
       </c>
       <c r="B53" t="s">
-        <v>319</v>
+        <v>702</v>
       </c>
       <c r="C53" t="s">
-        <v>320</v>
+        <v>703</v>
       </c>
       <c r="D53" t="s">
-        <v>322</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B54" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C54" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D54" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B55" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C55" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D55" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="C56" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="D56" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="B57" t="s">
-        <v>303</v>
+        <v>368</v>
       </c>
       <c r="C57" t="s">
-        <v>304</v>
+        <v>369</v>
       </c>
       <c r="D57" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="B58" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="C58" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="D58" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C59" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="D59" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="B60" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="C60" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="D60" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="B61" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="C61" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="D61" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="B62" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="C62" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="D62" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B63" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C63" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D63" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1051</v>
+        <v>350</v>
       </c>
       <c r="B64" t="s">
-        <v>1049</v>
+        <v>348</v>
       </c>
       <c r="C64" t="s">
-        <v>1050</v>
+        <v>349</v>
       </c>
       <c r="D64" t="s">
-        <v>1052</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1055</v>
+        <v>354</v>
       </c>
       <c r="B65" t="s">
-        <v>1053</v>
+        <v>352</v>
       </c>
       <c r="C65" t="s">
-        <v>1054</v>
+        <v>353</v>
       </c>
       <c r="D65" t="s">
-        <v>1056</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B66" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="C66" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="D66" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B67" t="s">
+        <v>356</v>
+      </c>
+      <c r="C67" t="s">
+        <v>357</v>
+      </c>
+      <c r="D67" t="s">
         <v>359</v>
-      </c>
-      <c r="C67" t="s">
-        <v>360</v>
-      </c>
-      <c r="D67" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>366</v>
+      </c>
+      <c r="B68" t="s">
+        <v>364</v>
+      </c>
+      <c r="C68" t="s">
         <v>365</v>
       </c>
-      <c r="B68" t="s">
-        <v>363</v>
-      </c>
-      <c r="C68" t="s">
-        <v>364</v>
-      </c>
       <c r="D68" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>369</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>367</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>368</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>370</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="B70" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="C70" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="D70" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="B71" t="s">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>376</v>
+        <v>233</v>
       </c>
       <c r="D71" t="s">
-        <v>378</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1059</v>
+        <v>230</v>
       </c>
       <c r="B72" t="s">
-        <v>1057</v>
+        <v>228</v>
       </c>
       <c r="C72" t="s">
-        <v>1058</v>
+        <v>229</v>
       </c>
       <c r="D72" t="s">
-        <v>1060</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>413</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>411</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>412</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>414</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>385</v>
+        <v>194</v>
       </c>
       <c r="B74" t="s">
-        <v>383</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
-        <v>384</v>
+        <v>193</v>
       </c>
       <c r="D74" t="s">
-        <v>386</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>417</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
-        <v>415</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>416</v>
+        <v>197</v>
       </c>
       <c r="D75" t="s">
-        <v>418</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="B76" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C76" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="D76" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>401</v>
+        <v>278</v>
       </c>
       <c r="B77" t="s">
-        <v>399</v>
+        <v>276</v>
       </c>
       <c r="C77" t="s">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="D77" t="s">
-        <v>402</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>409</v>
+        <v>290</v>
       </c>
       <c r="B78" t="s">
-        <v>407</v>
+        <v>288</v>
       </c>
       <c r="C78" t="s">
-        <v>408</v>
+        <v>289</v>
       </c>
       <c r="D78" t="s">
-        <v>410</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>389</v>
+        <v>298</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>296</v>
       </c>
       <c r="C79" t="s">
-        <v>388</v>
+        <v>297</v>
       </c>
       <c r="D79" t="s">
-        <v>390</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>397</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s">
-        <v>395</v>
+        <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>396</v>
+        <v>293</v>
       </c>
       <c r="D80" t="s">
-        <v>398</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>393</v>
+        <v>282</v>
       </c>
       <c r="B81" t="s">
-        <v>391</v>
+        <v>280</v>
       </c>
       <c r="C81" t="s">
-        <v>392</v>
+        <v>281</v>
       </c>
       <c r="D81" t="s">
-        <v>394</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1115</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s">
-        <v>1113</v>
+        <v>284</v>
       </c>
       <c r="C82" t="s">
-        <v>1114</v>
+        <v>285</v>
       </c>
       <c r="D82" t="s">
-        <v>1116</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1039</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s">
-        <v>1037</v>
+        <v>300</v>
       </c>
       <c r="C83" t="s">
-        <v>1038</v>
+        <v>301</v>
       </c>
       <c r="D83" t="s">
-        <v>1040</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>581</v>
+        <v>306</v>
       </c>
       <c r="B84" t="s">
-        <v>579</v>
+        <v>304</v>
       </c>
       <c r="C84" t="s">
-        <v>580</v>
+        <v>305</v>
       </c>
       <c r="D84" t="s">
-        <v>582</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>505</v>
+        <v>310</v>
       </c>
       <c r="B85" t="s">
-        <v>503</v>
+        <v>308</v>
       </c>
       <c r="C85" t="s">
-        <v>504</v>
+        <v>309</v>
       </c>
       <c r="D85" t="s">
-        <v>506</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>601</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s">
-        <v>599</v>
+        <v>312</v>
       </c>
       <c r="C86" t="s">
-        <v>600</v>
+        <v>313</v>
       </c>
       <c r="D86" t="s">
-        <v>602</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="B87" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="C87" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="D87" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="C88" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="D88" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="B89" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="C89" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="D89" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>617</v>
+        <v>573</v>
       </c>
       <c r="B90" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
       <c r="C90" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
       <c r="D90" t="s">
-        <v>618</v>
+        <v>574</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="B91" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="C91" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="D91" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="B92" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C92" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="D92" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="B93" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="C93" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="D93" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="B94" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="C94" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="D94" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="B95" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C95" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="D95" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="B96" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="C96" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="D96" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="B97" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="C97" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="D97" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="B98" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C98" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="D98" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="B99" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="C99" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="D99" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>589</v>
+        <v>517</v>
       </c>
       <c r="B100" t="s">
-        <v>587</v>
+        <v>515</v>
       </c>
       <c r="C100" t="s">
-        <v>588</v>
+        <v>516</v>
       </c>
       <c r="D100" t="s">
-        <v>590</v>
+        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>585</v>
+        <v>521</v>
       </c>
       <c r="B101" t="s">
-        <v>583</v>
+        <v>519</v>
       </c>
       <c r="C101" t="s">
-        <v>584</v>
+        <v>520</v>
       </c>
       <c r="D101" t="s">
-        <v>586</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>593</v>
+        <v>529</v>
       </c>
       <c r="B102" t="s">
-        <v>591</v>
+        <v>527</v>
       </c>
       <c r="C102" t="s">
-        <v>592</v>
+        <v>528</v>
       </c>
       <c r="D102" t="s">
-        <v>594</v>
+        <v>530</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="B103" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="C103" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="D103" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B104" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C104" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="D104" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B105" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C105" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="D105" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B106" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C106" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="D106" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B107" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C107" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="D107" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B108" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C108" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="D108" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="B109" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C109" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D109" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>573</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>571</v>
+        <v>48</v>
       </c>
       <c r="C110" t="s">
-        <v>572</v>
+        <v>49</v>
       </c>
       <c r="D110" t="s">
-        <v>574</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>569</v>
+        <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>567</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>568</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>570</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>577</v>
+        <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>575</v>
+        <v>44</v>
       </c>
       <c r="C112" t="s">
-        <v>576</v>
+        <v>45</v>
       </c>
       <c r="D112" t="s">
-        <v>578</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>501</v>
+        <v>58</v>
       </c>
       <c r="B114" t="s">
-        <v>499</v>
+        <v>56</v>
       </c>
       <c r="C114" t="s">
-        <v>500</v>
+        <v>57</v>
       </c>
       <c r="D114" t="s">
-        <v>502</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>353</v>
+        <v>66</v>
       </c>
       <c r="B115" t="s">
-        <v>351</v>
+        <v>64</v>
       </c>
       <c r="C115" t="s">
-        <v>352</v>
+        <v>65</v>
       </c>
       <c r="D115" t="s">
-        <v>354</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="B116" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="C116" t="s">
-        <v>288</v>
+        <v>61</v>
       </c>
       <c r="D116" t="s">
-        <v>290</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>347</v>
+        <v>72</v>
       </c>
       <c r="C117" t="s">
-        <v>348</v>
+        <v>73</v>
       </c>
       <c r="D117" t="s">
-        <v>350</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="B119" t="s">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="C119" t="s">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="D119" t="s">
-        <v>282</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="B120" t="s">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="C120" t="s">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="D120" t="s">
-        <v>278</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>253</v>
+        <v>557</v>
       </c>
       <c r="B121" t="s">
-        <v>251</v>
+        <v>555</v>
       </c>
       <c r="C121" t="s">
-        <v>252</v>
+        <v>556</v>
       </c>
       <c r="D121" t="s">
-        <v>254</v>
+        <v>558</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>257</v>
+        <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
+        <v>88</v>
       </c>
       <c r="C122" t="s">
-        <v>256</v>
+        <v>89</v>
       </c>
       <c r="D122" t="s">
-        <v>258</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c r="B123" t="s">
-        <v>259</v>
+        <v>84</v>
       </c>
       <c r="C123" t="s">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="D123" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>265</v>
+        <v>561</v>
       </c>
       <c r="B124" t="s">
-        <v>263</v>
+        <v>559</v>
       </c>
       <c r="C124" t="s">
-        <v>264</v>
+        <v>560</v>
       </c>
       <c r="D124" t="s">
-        <v>266</v>
+        <v>562</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="B125" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="C125" t="s">
-        <v>268</v>
+        <v>93</v>
       </c>
       <c r="D125" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>273</v>
+        <v>589</v>
       </c>
       <c r="B126" t="s">
-        <v>271</v>
+        <v>587</v>
       </c>
       <c r="C126" t="s">
-        <v>272</v>
+        <v>588</v>
       </c>
       <c r="D126" t="s">
-        <v>274</v>
+        <v>590</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="B127" t="s">
-        <v>623</v>
+        <v>583</v>
       </c>
       <c r="C127" t="s">
-        <v>624</v>
+        <v>584</v>
       </c>
       <c r="D127" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="B128" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="C128" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="D128" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>987</v>
+        <v>593</v>
       </c>
       <c r="B129" t="s">
-        <v>985</v>
+        <v>591</v>
       </c>
       <c r="C129" t="s">
-        <v>986</v>
+        <v>592</v>
       </c>
       <c r="D129" t="s">
-        <v>988</v>
+        <v>594</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>433</v>
+        <v>609</v>
       </c>
       <c r="B130" t="s">
-        <v>431</v>
+        <v>607</v>
       </c>
       <c r="C130" t="s">
-        <v>432</v>
+        <v>608</v>
       </c>
       <c r="D130" t="s">
-        <v>434</v>
+        <v>610</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>429</v>
+        <v>601</v>
       </c>
       <c r="B131" t="s">
-        <v>427</v>
+        <v>599</v>
       </c>
       <c r="C131" t="s">
-        <v>428</v>
+        <v>600</v>
       </c>
       <c r="D131" t="s">
-        <v>430</v>
+        <v>602</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>421</v>
+        <v>617</v>
       </c>
       <c r="B132" t="s">
-        <v>419</v>
+        <v>615</v>
       </c>
       <c r="C132" t="s">
-        <v>420</v>
+        <v>616</v>
       </c>
       <c r="D132" t="s">
-        <v>422</v>
+        <v>618</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>425</v>
+        <v>605</v>
       </c>
       <c r="B133" t="s">
-        <v>423</v>
+        <v>603</v>
       </c>
       <c r="C133" t="s">
-        <v>424</v>
+        <v>604</v>
       </c>
       <c r="D133" t="s">
-        <v>426</v>
+        <v>606</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>461</v>
+        <v>613</v>
       </c>
       <c r="B134" t="s">
-        <v>459</v>
+        <v>611</v>
       </c>
       <c r="C134" t="s">
-        <v>460</v>
+        <v>612</v>
       </c>
       <c r="D134" t="s">
-        <v>462</v>
+        <v>614</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>465</v>
+        <v>102</v>
       </c>
       <c r="B135" t="s">
-        <v>463</v>
+        <v>100</v>
       </c>
       <c r="C135" t="s">
-        <v>464</v>
+        <v>101</v>
       </c>
       <c r="D135" t="s">
-        <v>466</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>469</v>
+        <v>106</v>
       </c>
       <c r="B136" t="s">
-        <v>467</v>
+        <v>104</v>
       </c>
       <c r="C136" t="s">
-        <v>468</v>
+        <v>105</v>
       </c>
       <c r="D136" t="s">
-        <v>470</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>473</v>
+        <v>110</v>
       </c>
       <c r="B137" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
       <c r="C137" t="s">
-        <v>472</v>
+        <v>109</v>
       </c>
       <c r="D137" t="s">
-        <v>474</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>477</v>
+        <v>114</v>
       </c>
       <c r="B138" t="s">
-        <v>475</v>
+        <v>112</v>
       </c>
       <c r="C138" t="s">
-        <v>476</v>
+        <v>113</v>
       </c>
       <c r="D138" t="s">
-        <v>478</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>481</v>
+        <v>98</v>
       </c>
       <c r="B139" t="s">
-        <v>479</v>
+        <v>96</v>
       </c>
       <c r="C139" t="s">
-        <v>480</v>
+        <v>97</v>
       </c>
       <c r="D139" t="s">
-        <v>482</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>437</v>
+        <v>621</v>
       </c>
       <c r="B140" t="s">
-        <v>435</v>
+        <v>619</v>
       </c>
       <c r="C140" t="s">
-        <v>436</v>
+        <v>620</v>
       </c>
       <c r="D140" t="s">
-        <v>438</v>
+        <v>622</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>449</v>
+        <v>632</v>
       </c>
       <c r="B141" t="s">
-        <v>447</v>
+        <v>631</v>
       </c>
       <c r="C141" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="D141" t="s">
-        <v>450</v>
+        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>457</v>
+        <v>629</v>
       </c>
       <c r="B142" t="s">
-        <v>455</v>
+        <v>627</v>
       </c>
       <c r="C142" t="s">
-        <v>456</v>
+        <v>628</v>
       </c>
       <c r="D142" t="s">
-        <v>458</v>
+        <v>630</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>453</v>
+        <v>118</v>
       </c>
       <c r="B143" t="s">
-        <v>451</v>
+        <v>116</v>
       </c>
       <c r="C143" t="s">
-        <v>452</v>
+        <v>117</v>
       </c>
       <c r="D143" t="s">
-        <v>454</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>441</v>
+        <v>122</v>
       </c>
       <c r="B144" t="s">
-        <v>439</v>
+        <v>120</v>
       </c>
       <c r="C144" t="s">
-        <v>440</v>
+        <v>121</v>
       </c>
       <c r="D144" t="s">
-        <v>442</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>445</v>
+        <v>668</v>
       </c>
       <c r="B145" t="s">
-        <v>443</v>
+        <v>666</v>
       </c>
       <c r="C145" t="s">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="D145" t="s">
-        <v>446</v>
+        <v>669</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>485</v>
+        <v>672</v>
       </c>
       <c r="B146" t="s">
-        <v>483</v>
+        <v>670</v>
       </c>
       <c r="C146" t="s">
-        <v>484</v>
+        <v>671</v>
       </c>
       <c r="D146" t="s">
-        <v>486</v>
+        <v>673</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>489</v>
+        <v>676</v>
       </c>
       <c r="B147" t="s">
-        <v>487</v>
+        <v>674</v>
       </c>
       <c r="C147" t="s">
-        <v>488</v>
+        <v>675</v>
       </c>
       <c r="D147" t="s">
-        <v>490</v>
+        <v>677</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>493</v>
+        <v>696</v>
       </c>
       <c r="B148" t="s">
-        <v>491</v>
+        <v>694</v>
       </c>
       <c r="C148" t="s">
-        <v>492</v>
+        <v>695</v>
       </c>
       <c r="D148" t="s">
-        <v>494</v>
+        <v>697</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>497</v>
+        <v>708</v>
       </c>
       <c r="B149" t="s">
-        <v>495</v>
+        <v>706</v>
       </c>
       <c r="C149" t="s">
-        <v>496</v>
+        <v>707</v>
       </c>
       <c r="D149" t="s">
-        <v>498</v>
+        <v>709</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>784</v>
+        <v>712</v>
       </c>
       <c r="B150" t="s">
-        <v>782</v>
+        <v>710</v>
       </c>
       <c r="C150" t="s">
-        <v>783</v>
+        <v>711</v>
       </c>
       <c r="D150" t="s">
-        <v>785</v>
+        <v>713</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>792</v>
+        <v>728</v>
       </c>
       <c r="B151" t="s">
-        <v>790</v>
+        <v>726</v>
       </c>
       <c r="C151" t="s">
-        <v>791</v>
+        <v>727</v>
       </c>
       <c r="D151" t="s">
-        <v>793</v>
+        <v>729</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>788</v>
+        <v>732</v>
       </c>
       <c r="B152" t="s">
-        <v>786</v>
+        <v>730</v>
       </c>
       <c r="C152" t="s">
-        <v>787</v>
+        <v>731</v>
       </c>
       <c r="D152" t="s">
-        <v>789</v>
+        <v>733</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>876</v>
+        <v>760</v>
       </c>
       <c r="B153" t="s">
-        <v>874</v>
+        <v>758</v>
       </c>
       <c r="C153" t="s">
-        <v>875</v>
+        <v>759</v>
       </c>
       <c r="D153" t="s">
-        <v>877</v>
+        <v>761</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>880</v>
+        <v>756</v>
       </c>
       <c r="B154" t="s">
-        <v>878</v>
+        <v>754</v>
       </c>
       <c r="C154" t="s">
-        <v>879</v>
+        <v>755</v>
       </c>
       <c r="D154" t="s">
-        <v>881</v>
+        <v>757</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>888</v>
+        <v>684</v>
       </c>
       <c r="B155" t="s">
-        <v>886</v>
+        <v>682</v>
       </c>
       <c r="C155" t="s">
-        <v>887</v>
+        <v>683</v>
       </c>
       <c r="D155" t="s">
-        <v>889</v>
+        <v>685</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>884</v>
+        <v>688</v>
       </c>
       <c r="B156" t="s">
-        <v>882</v>
+        <v>686</v>
       </c>
       <c r="C156" t="s">
-        <v>883</v>
+        <v>687</v>
       </c>
       <c r="D156" t="s">
-        <v>885</v>
+        <v>689</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>892</v>
+        <v>700</v>
       </c>
       <c r="B157" t="s">
-        <v>890</v>
+        <v>698</v>
       </c>
       <c r="C157" t="s">
-        <v>891</v>
+        <v>699</v>
       </c>
       <c r="D157" t="s">
-        <v>893</v>
+        <v>701</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>796</v>
+        <v>744</v>
       </c>
       <c r="B158" t="s">
-        <v>794</v>
+        <v>742</v>
       </c>
       <c r="C158" t="s">
-        <v>795</v>
+        <v>743</v>
       </c>
       <c r="D158" t="s">
-        <v>797</v>
+        <v>745</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>800</v>
+        <v>736</v>
       </c>
       <c r="B159" t="s">
-        <v>798</v>
+        <v>734</v>
       </c>
       <c r="C159" t="s">
-        <v>799</v>
+        <v>735</v>
       </c>
       <c r="D159" t="s">
-        <v>801</v>
+        <v>737</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>804</v>
+        <v>748</v>
       </c>
       <c r="B160" t="s">
-        <v>802</v>
+        <v>746</v>
       </c>
       <c r="C160" t="s">
-        <v>803</v>
+        <v>747</v>
       </c>
       <c r="D160" t="s">
-        <v>805</v>
+        <v>749</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>808</v>
+        <v>740</v>
       </c>
       <c r="B161" t="s">
-        <v>806</v>
+        <v>738</v>
       </c>
       <c r="C161" t="s">
-        <v>807</v>
+        <v>739</v>
       </c>
       <c r="D161" t="s">
-        <v>809</v>
+        <v>741</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>812</v>
+        <v>752</v>
       </c>
       <c r="B162" t="s">
-        <v>810</v>
+        <v>750</v>
       </c>
       <c r="C162" t="s">
-        <v>811</v>
+        <v>751</v>
       </c>
       <c r="D162" t="s">
-        <v>813</v>
+        <v>753</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>816</v>
+        <v>768</v>
       </c>
       <c r="B163" t="s">
-        <v>814</v>
+        <v>766</v>
       </c>
       <c r="C163" t="s">
-        <v>815</v>
+        <v>767</v>
       </c>
       <c r="D163" t="s">
-        <v>817</v>
+        <v>769</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>824</v>
+        <v>776</v>
       </c>
       <c r="B164" t="s">
-        <v>822</v>
+        <v>774</v>
       </c>
       <c r="C164" t="s">
-        <v>823</v>
+        <v>775</v>
       </c>
       <c r="D164" t="s">
-        <v>825</v>
+        <v>777</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>820</v>
+        <v>772</v>
       </c>
       <c r="B165" t="s">
-        <v>818</v>
+        <v>770</v>
       </c>
       <c r="C165" t="s">
-        <v>819</v>
+        <v>771</v>
       </c>
       <c r="D165" t="s">
-        <v>821</v>
+        <v>773</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>828</v>
+        <v>394</v>
       </c>
       <c r="B166" t="s">
-        <v>826</v>
+        <v>392</v>
       </c>
       <c r="C166" t="s">
-        <v>827</v>
+        <v>393</v>
       </c>
       <c r="D166" t="s">
-        <v>829</v>
+        <v>395</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>832</v>
+        <v>398</v>
       </c>
       <c r="B167" t="s">
-        <v>830</v>
+        <v>396</v>
       </c>
       <c r="C167" t="s">
-        <v>831</v>
+        <v>397</v>
       </c>
       <c r="D167" t="s">
-        <v>833</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>840</v>
+        <v>402</v>
       </c>
       <c r="B168" t="s">
-        <v>838</v>
+        <v>400</v>
       </c>
       <c r="C168" t="s">
-        <v>839</v>
+        <v>401</v>
       </c>
       <c r="D168" t="s">
-        <v>841</v>
+        <v>403</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>836</v>
+        <v>386</v>
       </c>
       <c r="B169" t="s">
-        <v>834</v>
+        <v>384</v>
       </c>
       <c r="C169" t="s">
-        <v>835</v>
+        <v>385</v>
       </c>
       <c r="D169" t="s">
-        <v>837</v>
+        <v>387</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>844</v>
+        <v>390</v>
       </c>
       <c r="B170" t="s">
-        <v>842</v>
+        <v>388</v>
       </c>
       <c r="C170" t="s">
-        <v>843</v>
+        <v>389</v>
       </c>
       <c r="D170" t="s">
-        <v>845</v>
+        <v>391</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>848</v>
+        <v>409</v>
       </c>
       <c r="B171" t="s">
-        <v>846</v>
+        <v>408</v>
       </c>
       <c r="C171" t="s">
-        <v>847</v>
+        <v>393</v>
       </c>
       <c r="D171" t="s">
-        <v>849</v>
+        <v>410</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>852</v>
+        <v>429</v>
       </c>
       <c r="B172" t="s">
-        <v>850</v>
+        <v>427</v>
       </c>
       <c r="C172" t="s">
-        <v>851</v>
+        <v>428</v>
       </c>
       <c r="D172" t="s">
-        <v>853</v>
+        <v>430</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>856</v>
+        <v>18</v>
       </c>
       <c r="B173" t="s">
-        <v>854</v>
+        <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>855</v>
+        <v>17</v>
       </c>
       <c r="D173" t="s">
-        <v>857</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>860</v>
+        <v>477</v>
       </c>
       <c r="B174" t="s">
-        <v>858</v>
+        <v>475</v>
       </c>
       <c r="C174" t="s">
-        <v>859</v>
+        <v>476</v>
       </c>
       <c r="D174" t="s">
-        <v>861</v>
+        <v>478</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>864</v>
+        <v>473</v>
       </c>
       <c r="B175" t="s">
-        <v>862</v>
+        <v>471</v>
       </c>
       <c r="C175" t="s">
-        <v>863</v>
+        <v>472</v>
       </c>
       <c r="D175" t="s">
-        <v>865</v>
+        <v>474</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>50</v>
+        <v>413</v>
       </c>
       <c r="B176" t="s">
-        <v>48</v>
+        <v>411</v>
       </c>
       <c r="C176" t="s">
-        <v>49</v>
+        <v>412</v>
       </c>
       <c r="D176" t="s">
-        <v>51</v>
+        <v>414</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>42</v>
+        <v>421</v>
       </c>
       <c r="B177" t="s">
-        <v>40</v>
+        <v>419</v>
       </c>
       <c r="C177" t="s">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="D177" t="s">
-        <v>43</v>
+        <v>422</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>46</v>
+        <v>433</v>
       </c>
       <c r="B178" t="s">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="C178" t="s">
-        <v>45</v>
+        <v>432</v>
       </c>
       <c r="D178" t="s">
-        <v>47</v>
+        <v>434</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>54</v>
+        <v>437</v>
       </c>
       <c r="B179" t="s">
-        <v>52</v>
+        <v>435</v>
       </c>
       <c r="C179" t="s">
-        <v>53</v>
+        <v>436</v>
       </c>
       <c r="D179" t="s">
-        <v>55</v>
+        <v>438</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>58</v>
+        <v>445</v>
       </c>
       <c r="B180" t="s">
-        <v>56</v>
+        <v>443</v>
       </c>
       <c r="C180" t="s">
-        <v>57</v>
+        <v>444</v>
       </c>
       <c r="D180" t="s">
-        <v>59</v>
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>66</v>
+        <v>449</v>
       </c>
       <c r="B181" t="s">
-        <v>64</v>
+        <v>447</v>
       </c>
       <c r="C181" t="s">
-        <v>65</v>
+        <v>448</v>
       </c>
       <c r="D181" t="s">
-        <v>67</v>
+        <v>450</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>62</v>
+        <v>441</v>
       </c>
       <c r="B182" t="s">
-        <v>60</v>
+        <v>439</v>
       </c>
       <c r="C182" t="s">
-        <v>61</v>
+        <v>440</v>
       </c>
       <c r="D182" t="s">
-        <v>63</v>
+        <v>442</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>74</v>
+        <v>457</v>
       </c>
       <c r="B183" t="s">
-        <v>72</v>
+        <v>455</v>
       </c>
       <c r="C183" t="s">
-        <v>73</v>
+        <v>456</v>
       </c>
       <c r="D183" t="s">
-        <v>75</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>70</v>
+        <v>461</v>
       </c>
       <c r="B184" t="s">
-        <v>68</v>
+        <v>459</v>
       </c>
       <c r="C184" t="s">
-        <v>69</v>
+        <v>460</v>
       </c>
       <c r="D184" t="s">
-        <v>71</v>
+        <v>462</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B185" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C185" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D185" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B186" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C186" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D186" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>868</v>
+        <v>22</v>
       </c>
       <c r="B187" t="s">
-        <v>866</v>
+        <v>20</v>
       </c>
       <c r="C187" t="s">
-        <v>867</v>
+        <v>21</v>
       </c>
       <c r="D187" t="s">
-        <v>869</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="B188" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C188" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D188" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B189" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C189" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="D189" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>872</v>
+        <v>406</v>
       </c>
       <c r="B190" t="s">
-        <v>870</v>
+        <v>404</v>
       </c>
       <c r="C190" t="s">
-        <v>871</v>
+        <v>405</v>
       </c>
       <c r="D190" t="s">
-        <v>873</v>
+        <v>407</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>94</v>
+        <v>469</v>
       </c>
       <c r="B191" t="s">
-        <v>92</v>
+        <v>467</v>
       </c>
       <c r="C191" t="s">
-        <v>93</v>
+        <v>468</v>
       </c>
       <c r="D191" t="s">
-        <v>95</v>
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>932</v>
+        <v>425</v>
       </c>
       <c r="B192" t="s">
-        <v>930</v>
+        <v>423</v>
       </c>
       <c r="C192" t="s">
-        <v>931</v>
+        <v>424</v>
       </c>
       <c r="D192" t="s">
-        <v>933</v>
+        <v>426</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>936</v>
+        <v>417</v>
       </c>
       <c r="B193" t="s">
-        <v>934</v>
+        <v>415</v>
       </c>
       <c r="C193" t="s">
-        <v>935</v>
+        <v>416</v>
       </c>
       <c r="D193" t="s">
-        <v>937</v>
+        <v>418</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>900</v>
+        <v>453</v>
       </c>
       <c r="B194" t="s">
-        <v>898</v>
+        <v>451</v>
       </c>
       <c r="C194" t="s">
-        <v>899</v>
+        <v>452</v>
       </c>
       <c r="D194" t="s">
-        <v>901</v>
+        <v>454</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>896</v>
+        <v>465</v>
       </c>
       <c r="B195" t="s">
-        <v>894</v>
+        <v>463</v>
       </c>
       <c r="C195" t="s">
-        <v>895</v>
+        <v>464</v>
       </c>
       <c r="D195" t="s">
-        <v>897</v>
+        <v>466</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>908</v>
+        <v>481</v>
       </c>
       <c r="B196" t="s">
-        <v>906</v>
+        <v>479</v>
       </c>
       <c r="C196" t="s">
-        <v>907</v>
+        <v>480</v>
       </c>
       <c r="D196" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>904</v>
-      </c>
-      <c r="B197" t="s">
-        <v>902</v>
-      </c>
-      <c r="C197" t="s">
-        <v>903</v>
-      </c>
-      <c r="D197" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>920</v>
-      </c>
-      <c r="B198" t="s">
-        <v>918</v>
-      </c>
-      <c r="C198" t="s">
-        <v>919</v>
-      </c>
-      <c r="D198" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>912</v>
-      </c>
-      <c r="B199" t="s">
-        <v>910</v>
-      </c>
-      <c r="C199" t="s">
-        <v>911</v>
-      </c>
-      <c r="D199" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>928</v>
-      </c>
-      <c r="B200" t="s">
-        <v>926</v>
-      </c>
-      <c r="C200" t="s">
-        <v>927</v>
-      </c>
-      <c r="D200" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>916</v>
-      </c>
-      <c r="B201" t="s">
-        <v>914</v>
-      </c>
-      <c r="C201" t="s">
-        <v>915</v>
-      </c>
-      <c r="D201" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>924</v>
-      </c>
-      <c r="B202" t="s">
-        <v>922</v>
-      </c>
-      <c r="C202" t="s">
-        <v>923</v>
-      </c>
-      <c r="D202" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>102</v>
-      </c>
-      <c r="B203" t="s">
-        <v>100</v>
-      </c>
-      <c r="C203" t="s">
-        <v>101</v>
-      </c>
-      <c r="D203" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>106</v>
-      </c>
-      <c r="B204" t="s">
-        <v>104</v>
-      </c>
-      <c r="C204" t="s">
-        <v>105</v>
-      </c>
-      <c r="D204" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>110</v>
-      </c>
-      <c r="B205" t="s">
-        <v>108</v>
-      </c>
-      <c r="C205" t="s">
-        <v>109</v>
-      </c>
-      <c r="D205" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>114</v>
-      </c>
-      <c r="B206" t="s">
-        <v>112</v>
-      </c>
-      <c r="C206" t="s">
-        <v>113</v>
-      </c>
-      <c r="D206" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>98</v>
-      </c>
-      <c r="B207" t="s">
-        <v>96</v>
-      </c>
-      <c r="C207" t="s">
-        <v>97</v>
-      </c>
-      <c r="D207" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>940</v>
-      </c>
-      <c r="B208" t="s">
-        <v>938</v>
-      </c>
-      <c r="C208" t="s">
-        <v>939</v>
-      </c>
-      <c r="D208" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>951</v>
-      </c>
-      <c r="B209" t="s">
-        <v>950</v>
-      </c>
-      <c r="C209" t="s">
-        <v>779</v>
-      </c>
-      <c r="D209" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>948</v>
-      </c>
-      <c r="B210" t="s">
-        <v>946</v>
-      </c>
-      <c r="C210" t="s">
-        <v>947</v>
-      </c>
-      <c r="D210" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>118</v>
-      </c>
-      <c r="B211" t="s">
-        <v>116</v>
-      </c>
-      <c r="C211" t="s">
-        <v>117</v>
-      </c>
-      <c r="D211" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>122</v>
-      </c>
-      <c r="B212" t="s">
-        <v>120</v>
-      </c>
-      <c r="C212" t="s">
-        <v>121</v>
-      </c>
-      <c r="D212" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>991</v>
-      </c>
-      <c r="B213" t="s">
-        <v>989</v>
-      </c>
-      <c r="C213" t="s">
-        <v>990</v>
-      </c>
-      <c r="D213" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>995</v>
-      </c>
-      <c r="B214" t="s">
-        <v>993</v>
-      </c>
-      <c r="C214" t="s">
-        <v>994</v>
-      </c>
-      <c r="D214" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>999</v>
-      </c>
-      <c r="B215" t="s">
-        <v>997</v>
-      </c>
-      <c r="C215" t="s">
-        <v>998</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D216" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C218" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C220" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D220" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C222" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D222" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C223" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D223" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C224" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D224" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D225" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D226" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C227" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D227" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C228" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D228" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D229" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D230" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C231" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D231" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C232" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D232" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C234" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D234" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C235" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D235" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>653</v>
-      </c>
-      <c r="B236" t="s">
-        <v>651</v>
-      </c>
-      <c r="C236" t="s">
-        <v>652</v>
-      </c>
-      <c r="D236" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>657</v>
-      </c>
-      <c r="B237" t="s">
-        <v>655</v>
-      </c>
-      <c r="C237" t="s">
-        <v>656</v>
-      </c>
-      <c r="D237" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>665</v>
-      </c>
-      <c r="B238" t="s">
-        <v>663</v>
-      </c>
-      <c r="C238" t="s">
-        <v>664</v>
-      </c>
-      <c r="D238" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>661</v>
-      </c>
-      <c r="B239" t="s">
-        <v>659</v>
-      </c>
-      <c r="C239" t="s">
-        <v>660</v>
-      </c>
-      <c r="D239" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>673</v>
-      </c>
-      <c r="B240" t="s">
-        <v>671</v>
-      </c>
-      <c r="C240" t="s">
-        <v>672</v>
-      </c>
-      <c r="D240" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>669</v>
-      </c>
-      <c r="B241" t="s">
-        <v>667</v>
-      </c>
-      <c r="C241" t="s">
-        <v>668</v>
-      </c>
-      <c r="D241" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>677</v>
-      </c>
-      <c r="B242" t="s">
-        <v>675</v>
-      </c>
-      <c r="C242" t="s">
-        <v>676</v>
-      </c>
-      <c r="D242" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>685</v>
-      </c>
-      <c r="B243" t="s">
-        <v>683</v>
-      </c>
-      <c r="C243" t="s">
-        <v>684</v>
-      </c>
-      <c r="D243" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>681</v>
-      </c>
-      <c r="B244" t="s">
-        <v>679</v>
-      </c>
-      <c r="C244" t="s">
-        <v>680</v>
-      </c>
-      <c r="D244" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>629</v>
-      </c>
-      <c r="B245" t="s">
-        <v>627</v>
-      </c>
-      <c r="C245" t="s">
-        <v>628</v>
-      </c>
-      <c r="D245" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>641</v>
-      </c>
-      <c r="B246" t="s">
-        <v>639</v>
-      </c>
-      <c r="C246" t="s">
-        <v>640</v>
-      </c>
-      <c r="D246" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>645</v>
-      </c>
-      <c r="B247" t="s">
-        <v>643</v>
-      </c>
-      <c r="C247" t="s">
-        <v>644</v>
-      </c>
-      <c r="D247" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>649</v>
-      </c>
-      <c r="B248" t="s">
-        <v>647</v>
-      </c>
-      <c r="C248" t="s">
-        <v>648</v>
-      </c>
-      <c r="D248" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>633</v>
-      </c>
-      <c r="B249" t="s">
-        <v>631</v>
-      </c>
-      <c r="C249" t="s">
-        <v>632</v>
-      </c>
-      <c r="D249" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>637</v>
-      </c>
-      <c r="B250" t="s">
-        <v>635</v>
-      </c>
-      <c r="C250" t="s">
-        <v>636</v>
-      </c>
-      <c r="D250" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>772</v>
-      </c>
-      <c r="B251" t="s">
-        <v>770</v>
-      </c>
-      <c r="C251" t="s">
-        <v>771</v>
-      </c>
-      <c r="D251" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>700</v>
-      </c>
-      <c r="B252" t="s">
-        <v>699</v>
-      </c>
-      <c r="C252" t="s">
-        <v>640</v>
-      </c>
-      <c r="D252" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>720</v>
-      </c>
-      <c r="B253" t="s">
-        <v>718</v>
-      </c>
-      <c r="C253" t="s">
-        <v>719</v>
-      </c>
-      <c r="D253" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>18</v>
-      </c>
-      <c r="B254" t="s">
-        <v>16</v>
-      </c>
-      <c r="C254" t="s">
-        <v>17</v>
-      </c>
-      <c r="D254" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>776</v>
-      </c>
-      <c r="B255" t="s">
-        <v>774</v>
-      </c>
-      <c r="C255" t="s">
-        <v>775</v>
-      </c>
-      <c r="D255" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>689</v>
-      </c>
-      <c r="B256" t="s">
-        <v>687</v>
-      </c>
-      <c r="C256" t="s">
-        <v>688</v>
-      </c>
-      <c r="D256" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>693</v>
-      </c>
-      <c r="B257" t="s">
-        <v>691</v>
-      </c>
-      <c r="C257" t="s">
-        <v>692</v>
-      </c>
-      <c r="D257" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>768</v>
-      </c>
-      <c r="B258" t="s">
-        <v>766</v>
-      </c>
-      <c r="C258" t="s">
-        <v>767</v>
-      </c>
-      <c r="D258" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>764</v>
-      </c>
-      <c r="B259" t="s">
-        <v>762</v>
-      </c>
-      <c r="C259" t="s">
-        <v>763</v>
-      </c>
-      <c r="D259" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>704</v>
-      </c>
-      <c r="B260" t="s">
-        <v>702</v>
-      </c>
-      <c r="C260" t="s">
-        <v>703</v>
-      </c>
-      <c r="D260" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>712</v>
-      </c>
-      <c r="B261" t="s">
-        <v>710</v>
-      </c>
-      <c r="C261" t="s">
-        <v>711</v>
-      </c>
-      <c r="D261" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>724</v>
-      </c>
-      <c r="B262" t="s">
-        <v>722</v>
-      </c>
-      <c r="C262" t="s">
-        <v>723</v>
-      </c>
-      <c r="D262" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>728</v>
-      </c>
-      <c r="B263" t="s">
-        <v>726</v>
-      </c>
-      <c r="C263" t="s">
-        <v>727</v>
-      </c>
-      <c r="D263" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>736</v>
-      </c>
-      <c r="B264" t="s">
-        <v>734</v>
-      </c>
-      <c r="C264" t="s">
-        <v>735</v>
-      </c>
-      <c r="D264" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>740</v>
-      </c>
-      <c r="B265" t="s">
-        <v>738</v>
-      </c>
-      <c r="C265" t="s">
-        <v>739</v>
-      </c>
-      <c r="D265" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>732</v>
-      </c>
-      <c r="B266" t="s">
-        <v>730</v>
-      </c>
-      <c r="C266" t="s">
-        <v>731</v>
-      </c>
-      <c r="D266" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>748</v>
-      </c>
-      <c r="B267" t="s">
-        <v>746</v>
-      </c>
-      <c r="C267" t="s">
-        <v>747</v>
-      </c>
-      <c r="D267" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>752</v>
-      </c>
-      <c r="B268" t="s">
-        <v>750</v>
-      </c>
-      <c r="C268" t="s">
-        <v>751</v>
-      </c>
-      <c r="D268" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>26</v>
-      </c>
-      <c r="B269" t="s">
-        <v>24</v>
-      </c>
-      <c r="C269" t="s">
-        <v>25</v>
-      </c>
-      <c r="D269" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>30</v>
-      </c>
-      <c r="B270" t="s">
-        <v>28</v>
-      </c>
-      <c r="C270" t="s">
-        <v>29</v>
-      </c>
-      <c r="D270" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>22</v>
-      </c>
-      <c r="B271" t="s">
-        <v>20</v>
-      </c>
-      <c r="C271" t="s">
-        <v>21</v>
-      </c>
-      <c r="D271" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>34</v>
-      </c>
-      <c r="B272" t="s">
-        <v>32</v>
-      </c>
-      <c r="C272" t="s">
-        <v>33</v>
-      </c>
-      <c r="D272" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>38</v>
-      </c>
-      <c r="B273" t="s">
-        <v>36</v>
-      </c>
-      <c r="C273" t="s">
-        <v>37</v>
-      </c>
-      <c r="D273" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>697</v>
-      </c>
-      <c r="B274" t="s">
-        <v>695</v>
-      </c>
-      <c r="C274" t="s">
-        <v>696</v>
-      </c>
-      <c r="D274" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>760</v>
-      </c>
-      <c r="B275" t="s">
-        <v>758</v>
-      </c>
-      <c r="C275" t="s">
-        <v>759</v>
-      </c>
-      <c r="D275" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>716</v>
-      </c>
-      <c r="B276" t="s">
-        <v>714</v>
-      </c>
-      <c r="C276" t="s">
-        <v>715</v>
-      </c>
-      <c r="D276" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>708</v>
-      </c>
-      <c r="B277" t="s">
-        <v>706</v>
-      </c>
-      <c r="C277" t="s">
-        <v>707</v>
-      </c>
-      <c r="D277" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>744</v>
-      </c>
-      <c r="B278" t="s">
-        <v>742</v>
-      </c>
-      <c r="C278" t="s">
-        <v>743</v>
-      </c>
-      <c r="D278" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>756</v>
-      </c>
-      <c r="B279" t="s">
-        <v>754</v>
-      </c>
-      <c r="C279" t="s">
-        <v>755</v>
-      </c>
-      <c r="D279" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>780</v>
-      </c>
-      <c r="B280" t="s">
-        <v>778</v>
-      </c>
-      <c r="C280" t="s">
-        <v>779</v>
-      </c>
-      <c r="D280" t="s">
-        <v>781</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
